--- a/tests/forecast.xlsx
+++ b/tests/forecast.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>16.09</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,56 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.25</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Берлин</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Температура, среднее</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Без осадков, часов</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
